--- a/conf/files/Structure0.4-1Indicators.xlsx
+++ b/conf/files/Structure0.4-1Indicators.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nacho\Web_Index\wiFetcher\conf\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="319" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="319"/>
   </bookViews>
   <sheets>
-    <sheet name="Structure" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Indicators" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Countries" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Providers" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Indicators" sheetId="2" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="Providers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="281">
   <si>
     <t>type</t>
   </si>
@@ -831,18 +835,43 @@
   </si>
   <si>
     <t>http://www.weso.es</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>7D9900</t>
+  </si>
+  <si>
+    <t>1f77b4</t>
+  </si>
+  <si>
+    <t>2ca02c</t>
+  </si>
+  <si>
+    <t>ff7f0e</t>
+  </si>
+  <si>
+    <t>d62728</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Web Index</t>
+  </si>
+  <si>
+    <t>The World Wide Web Foundation Web Index 2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="# ?/?" numFmtId="165"/>
-    <numFmt formatCode="GENERAL" numFmtId="166"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -850,29 +879,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -889,7 +903,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -897,98 +911,322 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="166">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="1" pane="topLeft" sqref="H2:H117 B1"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.2908163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="13.42578125"/>
+    <col min="2" max="2" width="13"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="26.85546875"/>
+    <col min="7" max="7" width="16"/>
+    <col min="8" max="9" width="15"/>
+    <col min="10" max="11" width="24.28515625"/>
+    <col min="12" max="13" width="19.5703125"/>
+    <col min="14" max="1027" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,220 +1239,314 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C3" s="3">
         <v>0.2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C5" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C6" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C7" s="3">
         <v>0.2</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C8" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C9" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C10" s="3">
         <v>0.2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C12" s="3">
         <v>0.5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C13" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C14" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C15" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C16" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1222,23 +1554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="H2" activeCellId="0" pane="topLeft" sqref="H2:H117"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5714285714286"/>
+    <col min="1" max="1" width="13"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1297,2340 +1626,2339 @@
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+      <c r="L20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+      <c r="L26" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+      <c r="L27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+      <c r="L28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+      <c r="L29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+      <c r="L31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+      <c r="L32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="s">
+      <c r="L33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="s">
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+      <c r="L35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="s">
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+      <c r="L38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="s">
+      <c r="L39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+      <c r="L40" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="s">
+      <c r="L41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L42" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
+      <c r="L42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L43" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+      <c r="L43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L44" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="s">
+      <c r="L44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L45" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="s">
+      <c r="L45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L46" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
+      <c r="L46" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L47" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
+      <c r="L47" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L48" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M48" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="s">
+      <c r="L48" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L49" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="s">
+      <c r="L49" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L50" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="s">
+      <c r="L50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L51" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="s">
+      <c r="L51" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L52" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="s">
+      <c r="L52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="s">
+      <c r="L53" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L54" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="s">
+      <c r="L54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L55" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="s">
+      <c r="L55" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L56" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="s">
+      <c r="L56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>0.5</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L57" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="s">
+      <c r="L57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="3">
         <v>0.5</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="s">
+      <c r="L58" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L59" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="s">
+      <c r="L59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L60" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="s">
+      <c r="L60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L61" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="s">
+      <c r="L61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L62" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="s">
+      <c r="L62" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L63" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="s">
+      <c r="L63" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L64" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="s">
+      <c r="L64" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L65" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M65" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="s">
+      <c r="L65" t="s">
+        <v>57</v>
+      </c>
+      <c r="M65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L66" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="s">
+      <c r="L66" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M67" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+      <c r="L67" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L68" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="s">
+      <c r="L68" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L69" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M69" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="s">
+      <c r="L69" t="s">
+        <v>57</v>
+      </c>
+      <c r="M69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L70" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M70" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="s">
+      <c r="L70" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L71" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="s">
+      <c r="L71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L72" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="s">
+      <c r="L72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L73" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="s">
+      <c r="L73" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="3" t="n">
+      <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L74" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="s">
+      <c r="L74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L75" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M75" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="s">
+      <c r="L75" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L76" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M76" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
-      <c r="A77" s="0" t="s">
+      <c r="L76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L77" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="s">
+      <c r="L77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L78" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
-      <c r="A79" s="0" t="s">
+      <c r="L78" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="3" t="n">
+      <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L79" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
-      <c r="A80" s="0" t="s">
+      <c r="L79" t="s">
+        <v>57</v>
+      </c>
+      <c r="M79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L80" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
-      <c r="A81" s="0" t="s">
+      <c r="L80" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="3" t="n">
+      <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L81" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="s">
+      <c r="L81" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L82" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="s">
+      <c r="L82" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L83" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="s">
+      <c r="L83" t="s">
+        <v>57</v>
+      </c>
+      <c r="M83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L84" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
-      <c r="A85" s="0" t="s">
+      <c r="L84" t="s">
+        <v>57</v>
+      </c>
+      <c r="M84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L85" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M85" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
-      <c r="A86" s="0" t="s">
+      <c r="L85" t="s">
+        <v>57</v>
+      </c>
+      <c r="M85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L86" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
-      <c r="A87" s="0" t="s">
+      <c r="L86" t="s">
+        <v>57</v>
+      </c>
+      <c r="M86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L87" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
-      <c r="A88" s="0" t="s">
+      <c r="L87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L88" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
-      <c r="A89" s="0" t="s">
+      <c r="L88" t="s">
+        <v>57</v>
+      </c>
+      <c r="M88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L89" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M89" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="s">
+      <c r="L89" t="s">
+        <v>57</v>
+      </c>
+      <c r="M89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="3" t="n">
+      <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L90" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M90" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="s">
+      <c r="L90" t="s">
+        <v>57</v>
+      </c>
+      <c r="M90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L91" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M91" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
-      <c r="A92" s="0" t="s">
+      <c r="L91" t="s">
+        <v>57</v>
+      </c>
+      <c r="M91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>30</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L92" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M92" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
-      <c r="A93" s="0" t="s">
+      <c r="L92" t="s">
+        <v>57</v>
+      </c>
+      <c r="M92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L93" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M93" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
-      <c r="A94" s="0" t="s">
+      <c r="L93" t="s">
+        <v>57</v>
+      </c>
+      <c r="M93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L94" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M94" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
-      <c r="A95" s="0" t="s">
+      <c r="L94" t="s">
+        <v>57</v>
+      </c>
+      <c r="M94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L95" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M95" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
-      <c r="A96" s="0" t="s">
+      <c r="L95" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L96" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M96" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
-      <c r="A97" s="0" t="s">
+      <c r="L96" t="s">
+        <v>57</v>
+      </c>
+      <c r="M96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>154</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L97" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M97" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
-      <c r="A98" s="0" t="s">
+      <c r="L97" t="s">
+        <v>57</v>
+      </c>
+      <c r="M97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L98" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M98" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
-      <c r="A99" s="0" t="s">
+      <c r="L98" t="s">
+        <v>57</v>
+      </c>
+      <c r="M98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L99" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M99" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
-      <c r="A100" s="0" t="s">
+      <c r="L99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>32</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L100" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M100" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
-      <c r="A101" s="0" t="s">
+      <c r="L100" t="s">
+        <v>57</v>
+      </c>
+      <c r="M100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>32</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L101" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M101" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
-      <c r="A102" s="0" t="s">
+      <c r="L101" t="s">
+        <v>57</v>
+      </c>
+      <c r="M101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L102" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M102" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="A103" s="0" t="s">
+      <c r="L102" t="s">
+        <v>57</v>
+      </c>
+      <c r="M102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>160</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L103" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M103" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="s">
+      <c r="L103" t="s">
+        <v>57</v>
+      </c>
+      <c r="M103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>161</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L104" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M104" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
-      <c r="A105" s="0" t="s">
+      <c r="L104" t="s">
+        <v>57</v>
+      </c>
+      <c r="M104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>162</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L105" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M105" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
-      <c r="A106" s="0" t="s">
+      <c r="L105" t="s">
+        <v>57</v>
+      </c>
+      <c r="M105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L106" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M106" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
-      <c r="A107" s="0" t="s">
+      <c r="L106" t="s">
+        <v>57</v>
+      </c>
+      <c r="M106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>164</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L107" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M107" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
-      <c r="A108" s="0" t="s">
+      <c r="L107" t="s">
+        <v>57</v>
+      </c>
+      <c r="M107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L108" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M108" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
-      <c r="A109" s="0" t="s">
+      <c r="L108" t="s">
+        <v>57</v>
+      </c>
+      <c r="M108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>32</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L109" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M109" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
-      <c r="A110" s="0" t="s">
+      <c r="L109" t="s">
+        <v>57</v>
+      </c>
+      <c r="M109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L110" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M110" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
-      <c r="A111" s="0" t="s">
+      <c r="L110" t="s">
+        <v>57</v>
+      </c>
+      <c r="M110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>32</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>168</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L111" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M111" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
-      <c r="A112" s="0" t="s">
+      <c r="L111" t="s">
+        <v>57</v>
+      </c>
+      <c r="M111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L112" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M112" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
-      <c r="A113" s="0" t="s">
+      <c r="L112" t="s">
+        <v>57</v>
+      </c>
+      <c r="M112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>170</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L113" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M113" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
-      <c r="A114" s="0" t="s">
+      <c r="L113" t="s">
+        <v>57</v>
+      </c>
+      <c r="M113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>34</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L114" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M114" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
-      <c r="A115" s="0" t="s">
+      <c r="L114" t="s">
+        <v>57</v>
+      </c>
+      <c r="M114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>172</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L115" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M115" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
-      <c r="A116" s="0" t="s">
+      <c r="L115" t="s">
+        <v>57</v>
+      </c>
+      <c r="M115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>34</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>173</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L116" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M116" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
-      <c r="A117" s="0" t="s">
+      <c r="L116" t="s">
+        <v>57</v>
+      </c>
+      <c r="M116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>34</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>174</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L117" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M117" s="0" t="s">
+      <c r="L117" t="s">
+        <v>57</v>
+      </c>
+      <c r="M117" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3638,29 +3966,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="H2:H117 A2"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="H2:H117 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5714285714286"/>
+    <col min="1" max="2" width="16.85546875"/>
+    <col min="3" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="15.5703125"/>
+    <col min="9" max="9" width="16.7109375"/>
+    <col min="10" max="11" width="22.140625"/>
+    <col min="12" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="15.85546875"/>
+    <col min="15" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -3701,416 +4026,415 @@
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="6">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="7">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="11">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="12">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="13">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="14">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="15">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="16">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="17">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="18">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="19">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="20">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="21">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="22">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="23">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="24">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="25">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="26">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="27">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="28">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="29">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="30">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="31">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>213</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="32">
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="33">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="34">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="35">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="36">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="37">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="38">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="39">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="40">
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="41">
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>223</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="42">
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="43">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="44">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="45">
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="46">
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="47">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>229</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="48">
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>230</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="49">
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="50">
-      <c r="B50" s="0" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="51">
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>233</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="52">
-      <c r="B52" s="0" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="53">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="54">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="55">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="56">
-      <c r="B56" s="0" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="57">
-      <c r="B57" s="0" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="58">
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="59">
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="60">
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="61">
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="62">
-      <c r="B62" s="0" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="63">
-      <c r="B63" s="0" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="64">
-      <c r="B64" s="0" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="65">
-      <c r="B65" s="0" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="66">
-      <c r="B66" s="0" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="67">
-      <c r="B67" s="0" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="68">
-      <c r="B68" s="0" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="69">
-      <c r="B69" s="0" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="70">
-      <c r="B70" s="0" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="71">
-      <c r="B71" s="0" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="72">
-      <c r="B72" s="0" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>254</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="73">
-      <c r="B73" s="0" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>255</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="74">
-      <c r="B74" s="0" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>256</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="75">
-      <c r="B75" s="0" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="76">
-      <c r="B76" s="0" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>258</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="77">
-      <c r="B77" s="0" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="78">
-      <c r="B78" s="0" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="79">
-      <c r="B79" s="0" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="80">
-      <c r="B80" s="0" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>262</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="81">
-      <c r="B81" s="0" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>263</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="82">
-      <c r="B82" s="0" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4118,22 +4442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="1" pane="topLeft" sqref="H2:H117 B2"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="H2:H117 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -4150,7 +4471,7 @@
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>267</v>
       </c>
@@ -4158,7 +4479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>268</v>
       </c>
@@ -4171,12 +4492,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://www.weso.es" ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
